--- a/+Model/LMP2_Bas.xlsx
+++ b/+Model/LMP2_Bas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\LaptimeSimOCP\+Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0ED8FC-CBB9-44F7-86C5-E3995F6EB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFB2ED-4827-4AA9-945D-C1098D56FEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="7" xr2:uid="{C9770ACA-89D6-4C25-A406-8CFD34B6BEB6}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{C9770ACA-89D6-4C25-A406-8CFD34B6BEB6}"/>
   </bookViews>
   <sheets>
     <sheet name="MassInertia" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
         <v>4.4939999999999998</v>
       </c>
       <c r="I2">
-        <v>0.316</v>
+        <v>0.43</v>
       </c>
       <c r="J2">
         <f>0.47</f>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2744984F-2619-4555-ADE9-32DB97027A3A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +912,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E935BBC8-6905-40C4-93AA-35113AE6796F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
